--- a/src/test/resources/testData/ProjectPulse.xlsx
+++ b/src/test/resources/testData/ProjectPulse.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -42,16 +42,135 @@
   </si>
   <si>
     <t>12345</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>clientName</t>
+  </si>
+  <si>
+    <t>czTest</t>
+  </si>
+  <si>
+    <t>clientNotes</t>
+  </si>
+  <si>
+    <t>physicalAddress1</t>
+  </si>
+  <si>
+    <t>physicalAddress2</t>
+  </si>
+  <si>
+    <t>physicalState</t>
+  </si>
+  <si>
+    <t>physicalCity</t>
+  </si>
+  <si>
+    <t>physicalZip</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>billingAddress1</t>
+  </si>
+  <si>
+    <t>billingAddress2</t>
+  </si>
+  <si>
+    <t>billingCountry</t>
+  </si>
+  <si>
+    <t>billingState</t>
+  </si>
+  <si>
+    <t>billingCity</t>
+  </si>
+  <si>
+    <t>billingZip</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>czNotes</t>
+  </si>
+  <si>
+    <t>czBanglore</t>
+  </si>
+  <si>
+    <t>czBanglore2</t>
+  </si>
+  <si>
+    <t>Tamilnadu</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>billingCz</t>
+  </si>
+  <si>
+    <t>billingcz</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>600078</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Gautham</t>
+  </si>
+  <si>
+    <t>Muru</t>
+  </si>
+  <si>
+    <t>gau@gamil.com</t>
+  </si>
+  <si>
+    <t>9600363826</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,14 +193,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,19 +482,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,8 +516,68 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -394,8 +588,82 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="V3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/ProjectPulse.xlsx
+++ b/src/test/resources/testData/ProjectPulse.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -50,9 +50,6 @@
     <t>clientName</t>
   </si>
   <si>
-    <t>czTest</t>
-  </si>
-  <si>
     <t>clientNotes</t>
   </si>
   <si>
@@ -153,6 +150,12 @@
   </si>
   <si>
     <t>9600363826</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>czTest7</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,61 +523,61 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>26</v>
-      </c>
-      <c r="W1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -599,71 +602,143 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R4" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S4" t="s">
         <v>38</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T4" t="s">
         <v>39</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="W4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V3" r:id="rId1"/>
+    <hyperlink ref="V4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/ProjectPulse.xlsx
+++ b/src/test/resources/testData/ProjectPulse.xlsx
@@ -155,7 +155,7 @@
     <t>TC_003</t>
   </si>
   <si>
-    <t>czTest7</t>
+    <t>czTestgau95</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testData/ProjectPulse.xlsx
+++ b/src/test/resources/testData/ProjectPulse.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Profile" sheetId="1" r:id="rId1"/>
+    <sheet name="location" sheetId="2" r:id="rId2"/>
+    <sheet name="Employee" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -155,7 +157,124 @@
     <t>TC_003</t>
   </si>
   <si>
-    <t>czTestgau95</t>
+    <t>location</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>salestax</t>
+  </si>
+  <si>
+    <t>overheadrate</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>tn</t>
+  </si>
+  <si>
+    <t>chn</t>
+  </si>
+  <si>
+    <t>inida</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>czTestgau98</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>billrate</t>
+  </si>
+  <si>
+    <t>extn</t>
+  </si>
+  <si>
+    <t>payrate</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>96003638245</t>
+  </si>
+  <si>
+    <t>test21</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>96003637245</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test32</t>
+  </si>
+  <si>
+    <t>murugap121shirt</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Abbeville</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>gautham</t>
+  </si>
+  <si>
+    <t>sai@gmail.com</t>
+  </si>
+  <si>
+    <t>saigau@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -487,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -673,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -741,4 +860,356 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>11</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R3" r:id="rId1"/>
+    <hyperlink ref="R4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/ProjectPulse.xlsx
+++ b/src/test/resources/testData/ProjectPulse.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="1" r:id="rId1"/>
     <sheet name="location" sheetId="2" r:id="rId2"/>
     <sheet name="Employee" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Expense" sheetId="4" r:id="rId5"/>
+    <sheet name="Project" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -40,9 +43,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>cz@ctleng.com</t>
-  </si>
-  <si>
     <t>12345</t>
   </si>
   <si>
@@ -223,9 +223,6 @@
     <t>mr</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -256,25 +253,61 @@
     <t>test32</t>
   </si>
   <si>
-    <t>murugap121shirt</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
     <t>Abbeville</t>
   </si>
   <si>
-    <t>sai</t>
-  </si>
-  <si>
-    <t>gautham</t>
-  </si>
-  <si>
-    <t>sai@gmail.com</t>
-  </si>
-  <si>
-    <t>saigau@gmail.com</t>
+    <t>Autauga</t>
+  </si>
+  <si>
+    <t>came1ron11</t>
+  </si>
+  <si>
+    <t>testuselast</t>
+  </si>
+  <si>
+    <t>testusergau10@gmail.com</t>
+  </si>
+  <si>
+    <t>testusergau11@gmail.com</t>
+  </si>
+  <si>
+    <t>gautest06</t>
+  </si>
+  <si>
+    <t>gautest07</t>
+  </si>
+  <si>
+    <t>expense</t>
+  </si>
+  <si>
+    <t>testexpense05</t>
+  </si>
+  <si>
+    <t>testexpense06</t>
+  </si>
+  <si>
+    <t>22Desc</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>CDOCND</t>
+  </si>
+  <si>
+    <t>joseph@sachina.com</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>clientname</t>
+  </si>
+  <si>
+    <t>projectname</t>
   </si>
 </sst>
 </file>
@@ -607,7 +640,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,64 +672,64 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>25</v>
-      </c>
-      <c r="W1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -704,152 +737,152 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>37</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>38</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>37</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>38</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +900,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,34 +938,34 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -940,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="1"/>
@@ -952,43 +985,43 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>54</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -998,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1049,7 @@
     <col min="8" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
@@ -1033,49 +1066,49 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>61</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
         <v>62</v>
       </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>63</v>
-      </c>
       <c r="R1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1083,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="1"/>
       <c r="L2" s="1"/>
@@ -1095,114 +1128,119 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="Q3" s="1">
         <v>11</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="R4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1212,4 +1250,171 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/ProjectPulse.xlsx
+++ b/src/test/resources/testData/ProjectPulse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
     <sheet name="Expense" sheetId="4" r:id="rId5"/>
     <sheet name="Project" sheetId="5" r:id="rId6"/>
+    <sheet name="Task" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="97">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -308,6 +309,18 @@
   </si>
   <si>
     <t>projectname</t>
+  </si>
+  <si>
+    <t>taskcode</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>9615</t>
+  </si>
+  <si>
+    <t>23Dec9615</t>
   </si>
 </sst>
 </file>
@@ -1340,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,4 +1430,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/ProjectPulse.xlsx
+++ b/src/test/resources/testData/ProjectPulse.xlsx
@@ -317,10 +317,10 @@
     <t>description</t>
   </si>
   <si>
-    <t>9615</t>
-  </si>
-  <si>
-    <t>23Dec9615</t>
+    <t>9616</t>
+  </si>
+  <si>
+    <t>23Dec9616</t>
   </si>
 </sst>
 </file>
